--- a/data/veri_Az.xlsx
+++ b/data/veri_Az.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yazilim1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/selimsidan/Desktop/grad_project/Route_Optimization_DSS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF36F7C-A894-43E4-A9AE-D6C085EAFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B6FE3-4A1D-D34D-8B7C-2A766DED9CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="2256" windowWidth="22680" windowHeight="9540" xr2:uid="{9FA34213-98BA-4377-AD65-E6EEDE718E67}"/>
+    <workbookView xWindow="340" yWindow="2260" windowWidth="22680" windowHeight="9540" xr2:uid="{9FA34213-98BA-4377-AD65-E6EEDE718E67}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -107,8 +107,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,24 +181,24 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Virgül" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -214,9 +214,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,7 +254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -360,7 +360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,7 +502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,18 +513,18 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G1" sqref="G1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -564,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -584,7 +584,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -604,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -624,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -644,7 +644,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -684,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -704,7 +704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -724,7 +724,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
